--- a/Team-Data/2012-13/1-24-2012-13.xlsx
+++ b/Team-Data/2012-13/1-24-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -765,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -792,7 +859,7 @@
         <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>0.476</v>
+        <v>0.488</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I3" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J3" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.334</v>
+        <v>0.339</v>
       </c>
       <c r="O3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P3" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T3" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V3" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
         <v>4.1</v>
@@ -914,25 +981,25 @@
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
         <v>19.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -941,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -950,13 +1017,13 @@
         <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
         <v>22</v>
@@ -971,13 +1038,13 @@
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
         <v>9</v>
@@ -995,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>6</v>
@@ -1147,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>7</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1320,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>2.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1693,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1851,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV9" t="n">
         <v>26</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2400,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2637,7 @@
         <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2579,7 +2646,7 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2606,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>1.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>6</v>
@@ -2758,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2797,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
@@ -2812,7 +2879,7 @@
         <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="n">
         <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.727</v>
+        <v>0.744</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="J14" t="n">
         <v>81.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
         <v>7.2</v>
@@ -2886,10 +2953,10 @@
         <v>17.3</v>
       </c>
       <c r="P14" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.709</v>
+        <v>0.712</v>
       </c>
       <c r="R14" t="n">
         <v>11.6</v>
@@ -2901,40 +2968,40 @@
         <v>42</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
         <v>14.3</v>
       </c>
       <c r="W14" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="X14" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.2</v>
+        <v>101.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -2943,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ14" t="n">
         <v>21</v>
@@ -2964,7 +3031,7 @@
         <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ14" t="n">
         <v>26</v>
@@ -2973,13 +3040,13 @@
         <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT14" t="n">
         <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>7</v>
@@ -2994,7 +3061,7 @@
         <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>0.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
@@ -3125,7 +3192,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>20</v>
@@ -3167,7 +3234,7 @@
         <v>25</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3361,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
         <v>27</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG17" t="n">
         <v>4</v>
@@ -3489,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3522,7 +3589,7 @@
         <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU17" t="n">
         <v>11</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-1.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3862,7 +3929,7 @@
         <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF20" t="n">
         <v>26</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" t="n">
         <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.65</v>
+        <v>0.641</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J21" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L21" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="M21" t="n">
         <v>28.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.383</v>
+        <v>0.385</v>
       </c>
       <c r="O21" t="n">
         <v>16</v>
@@ -4163,19 +4230,19 @@
         <v>21.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="V21" t="n">
         <v>11.1</v>
@@ -4184,28 +4251,28 @@
         <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y21" t="n">
         <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
         <v>5</v>
@@ -4214,16 +4281,16 @@
         <v>6</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ21" t="n">
         <v>7</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,13 +4302,13 @@
         <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
         <v>20</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR21" t="n">
         <v>21</v>
@@ -4250,10 +4317,10 @@
         <v>23</v>
       </c>
       <c r="AT21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4271,7 +4338,7 @@
         <v>9</v>
       </c>
       <c r="BA21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4408,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
@@ -4429,7 +4496,7 @@
         <v>24</v>
       </c>
       <c r="AS22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J23" t="n">
         <v>82.8</v>
@@ -4512,22 +4579,22 @@
         <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O23" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="P23" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R23" t="n">
         <v>10.1</v>
@@ -4536,13 +4603,13 @@
         <v>32.4</v>
       </c>
       <c r="T23" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U23" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>5.8</v>
@@ -4554,40 +4621,40 @@
         <v>4.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="AB23" t="n">
         <v>95.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG23" t="n">
         <v>25</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>26</v>
       </c>
       <c r="AH23" t="n">
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>16</v>
@@ -4605,13 +4672,13 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR23" t="n">
         <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT23" t="n">
         <v>14</v>
@@ -4632,7 +4699,7 @@
         <v>13</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4760,7 +4827,7 @@
         <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
@@ -4805,7 +4872,7 @@
         <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="n">
         <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J25" t="n">
-        <v>84.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.444</v>
@@ -4879,31 +4946,31 @@
         <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
       <c r="O25" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="P25" t="n">
-        <v>19.9</v>
+        <v>19.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R25" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S25" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="T25" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U25" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V25" t="n">
         <v>14.1</v>
@@ -4915,37 +4982,37 @@
         <v>5.7</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="AB25" t="n">
         <v>95.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>4</v>
@@ -4972,10 +5039,10 @@
         <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
@@ -4999,7 +5066,7 @@
         <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5124,7 +5191,7 @@
         <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>20</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO26" t="n">
         <v>19</v>
@@ -5157,7 +5224,7 @@
         <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT26" t="n">
         <v>16</v>
@@ -5169,7 +5236,7 @@
         <v>18</v>
       </c>
       <c r="AW26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5306,10 +5373,10 @@
         <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>9</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5582,7 @@
         <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -5580,46 +5647,46 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
         <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>0.372</v>
+        <v>0.357</v>
       </c>
       <c r="H29" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I29" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L29" t="n">
         <v>7.7</v>
       </c>
       <c r="M29" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O29" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P29" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R29" t="n">
         <v>10.7</v>
@@ -5631,13 +5698,13 @@
         <v>39.8</v>
       </c>
       <c r="U29" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V29" t="n">
         <v>12.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X29" t="n">
         <v>4.5</v>
@@ -5646,49 +5713,49 @@
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB29" t="n">
         <v>97.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
         <v>15</v>
@@ -5700,10 +5767,10 @@
         <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5852,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
         <v>16</v>
@@ -5876,7 +5943,7 @@
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="n">
         <v>13</v>
@@ -5891,7 +5958,7 @@
         <v>13</v>
       </c>
       <c r="AU30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6131,7 @@
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>5</v>
@@ -6088,7 +6155,7 @@
         <v>14</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-24-2012-13</t>
+          <t>2013-01-24</t>
         </is>
       </c>
     </row>
